--- a/Universal_Driver_soft/UniversalDriver_v2.1_turn/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v2.1_turn/Map Registers.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D33A7FA-AF27-4831-8003-BD320E000E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1EBE6-5225-4E8A-8689-5B9DACB1DBA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Десятичная</t>
   </si>
@@ -110,33 +110,15 @@
     <t>Dir</t>
   </si>
   <si>
-    <t>Stop/Start</t>
-  </si>
-  <si>
     <t>Направление вращения</t>
   </si>
   <si>
-    <t>Запуск или останов вращения</t>
-  </si>
-  <si>
     <t>Чтение / Запись (R/W)</t>
   </si>
   <si>
     <t>W</t>
   </si>
   <si>
-    <t>Status start/stop</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>состояние двигателя</t>
-  </si>
-  <si>
-    <t>Status Dir</t>
-  </si>
-  <si>
     <t>0(CW) - 1(CCW)</t>
   </si>
   <si>
@@ -152,12 +134,6 @@
     <t>для прошивки UniversalDriver_v2.1forStepper</t>
   </si>
   <si>
-    <t>CurrentMIN</t>
-  </si>
-  <si>
-    <t>Минимальный ток</t>
-  </si>
-  <si>
     <t>Accel</t>
   </si>
   <si>
@@ -165,6 +141,33 @@
   </si>
   <si>
     <t>1-1000</t>
+  </si>
+  <si>
+    <t>установка позиции турникета 0 вниз 1 ввех</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>ZeroPoint</t>
+  </si>
+  <si>
+    <t>установить турникет в нулевую точку</t>
+  </si>
+  <si>
+    <t>SetFeedbackTarget</t>
+  </si>
+  <si>
+    <t>Установка точко остановки. значения по энкодеру</t>
+  </si>
+  <si>
+    <t>Deaccel</t>
+  </si>
+  <si>
+    <t>торможение</t>
+  </si>
+  <si>
+    <t>0 - 500</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,7 +968,7 @@
     <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -993,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1004,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1030,16 +1033,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1050,17 +1053,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="F6" s="8">
+        <v>250</v>
+      </c>
       <c r="G6" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1071,17 +1076,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="10"/>
       <c r="G7" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1092,19 +1095,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F8" s="17">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1115,19 +1118,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1138,15 +1141,17 @@
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1161,7 +1166,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1197,7 +1202,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1216,7 +1221,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
